--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H2">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I2">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J2">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.133769566778986</v>
+        <v>0.150777</v>
       </c>
       <c r="N2">
-        <v>0.133769566778986</v>
+        <v>0.452331</v>
       </c>
       <c r="O2">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="P2">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="Q2">
-        <v>0.424327592928909</v>
+        <v>0.5875028317950001</v>
       </c>
       <c r="R2">
-        <v>0.424327592928909</v>
+        <v>5.287525486155</v>
       </c>
       <c r="S2">
-        <v>0.003116136078223481</v>
+        <v>0.003885963720749399</v>
       </c>
       <c r="T2">
-        <v>0.003116136078223481</v>
+        <v>0.003885963720749399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H3">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I3">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J3">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0613581945678</v>
+        <v>12.30706533333333</v>
       </c>
       <c r="N3">
-        <v>12.0613581945678</v>
+        <v>36.921196</v>
       </c>
       <c r="O3">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222844</v>
       </c>
       <c r="P3">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222843</v>
       </c>
       <c r="Q3">
-        <v>38.25957737166203</v>
+        <v>47.9545005831089</v>
       </c>
       <c r="R3">
-        <v>38.25957737166203</v>
+        <v>431.59050524798</v>
       </c>
       <c r="S3">
-        <v>0.2809669966605094</v>
+        <v>0.3171890234865129</v>
       </c>
       <c r="T3">
-        <v>0.2809669966605094</v>
+        <v>0.3171890234865128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H4">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I4">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J4">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.10331621523327</v>
+        <v>3.129079333333333</v>
       </c>
       <c r="N4">
-        <v>3.10331621523327</v>
+        <v>9.387238</v>
       </c>
       <c r="O4">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="P4">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="Q4">
-        <v>9.843963252739236</v>
+        <v>12.19246283746556</v>
       </c>
       <c r="R4">
-        <v>9.843963252739236</v>
+        <v>109.73216553719</v>
       </c>
       <c r="S4">
-        <v>0.07229114852709131</v>
+        <v>0.08064551469176368</v>
       </c>
       <c r="T4">
-        <v>0.07229114852709131</v>
+        <v>0.08064551469176368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H5">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J5">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.133769566778986</v>
+        <v>0.150777</v>
       </c>
       <c r="N5">
-        <v>0.133769566778986</v>
+        <v>0.452331</v>
       </c>
       <c r="O5">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="P5">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="Q5">
-        <v>0.4246905927795061</v>
+        <v>0.48810133548</v>
       </c>
       <c r="R5">
-        <v>0.4246905927795061</v>
+        <v>4.39291201932</v>
       </c>
       <c r="S5">
-        <v>0.00311880184153863</v>
+        <v>0.003228485003092633</v>
       </c>
       <c r="T5">
-        <v>0.00311880184153863</v>
+        <v>0.003228485003092633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H6">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J6">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0613581945678</v>
+        <v>12.30706533333333</v>
       </c>
       <c r="N6">
-        <v>12.0613581945678</v>
+        <v>36.921196</v>
       </c>
       <c r="O6">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222844</v>
       </c>
       <c r="P6">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222843</v>
       </c>
       <c r="Q6">
-        <v>38.29230732159049</v>
+        <v>39.84092417968</v>
       </c>
       <c r="R6">
-        <v>38.29230732159049</v>
+        <v>358.56831761712</v>
       </c>
       <c r="S6">
-        <v>0.2812073557121245</v>
+        <v>0.2635227910141992</v>
       </c>
       <c r="T6">
-        <v>0.2812073557121245</v>
+        <v>0.2635227910141992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H7">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J7">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.10331621523327</v>
+        <v>3.129079333333333</v>
       </c>
       <c r="N7">
-        <v>3.10331621523327</v>
+        <v>9.387238</v>
       </c>
       <c r="O7">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="P7">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="Q7">
-        <v>9.852384475515164</v>
+        <v>10.12958078104</v>
       </c>
       <c r="R7">
-        <v>9.852384475515164</v>
+        <v>91.16622702936</v>
       </c>
       <c r="S7">
-        <v>0.07235299149123535</v>
+        <v>0.06700084032149309</v>
       </c>
       <c r="T7">
-        <v>0.07235299149123535</v>
+        <v>0.06700084032149309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.55410434590679</v>
+        <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>2.55410434590679</v>
+        <v>7.697377</v>
       </c>
       <c r="I8">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="J8">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.133769566778986</v>
+        <v>0.150777</v>
       </c>
       <c r="N8">
-        <v>0.133769566778986</v>
+        <v>0.452331</v>
       </c>
       <c r="O8">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="P8">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="Q8">
-        <v>0.3416614318602767</v>
+        <v>0.386862470643</v>
       </c>
       <c r="R8">
-        <v>0.3416614318602767</v>
+        <v>3.481762235787</v>
       </c>
       <c r="S8">
-        <v>0.002509060292328605</v>
+        <v>0.002558853242026147</v>
       </c>
       <c r="T8">
-        <v>0.002509060292328605</v>
+        <v>0.002558853242026147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.55410434590679</v>
+        <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>2.55410434590679</v>
+        <v>7.697377</v>
       </c>
       <c r="I9">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="J9">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0613581945678</v>
+        <v>12.30706533333333</v>
       </c>
       <c r="N9">
-        <v>12.0613581945678</v>
+        <v>36.921196</v>
       </c>
       <c r="O9">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222844</v>
       </c>
       <c r="P9">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222843</v>
       </c>
       <c r="Q9">
-        <v>30.80596738228409</v>
+        <v>31.57737387809911</v>
       </c>
       <c r="R9">
-        <v>30.80596738228409</v>
+        <v>284.196364902892</v>
       </c>
       <c r="S9">
-        <v>0.2262298940351827</v>
+        <v>0.2088645750215723</v>
       </c>
       <c r="T9">
-        <v>0.2262298940351827</v>
+        <v>0.2088645750215723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.55410434590679</v>
+        <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>2.55410434590679</v>
+        <v>7.697377</v>
       </c>
       <c r="I10">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="J10">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.10331621523327</v>
+        <v>3.129079333333333</v>
       </c>
       <c r="N10">
-        <v>3.10331621523327</v>
+        <v>9.387238</v>
       </c>
       <c r="O10">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="P10">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="Q10">
-        <v>7.926193432050306</v>
+        <v>8.028567763858446</v>
       </c>
       <c r="R10">
-        <v>7.926193432050306</v>
+        <v>72.257109874726</v>
       </c>
       <c r="S10">
-        <v>0.058207615361766</v>
+        <v>0.05310395349859073</v>
       </c>
       <c r="T10">
-        <v>0.058207615361766</v>
+        <v>0.05310395349859073</v>
       </c>
     </row>
   </sheetData>
